--- a/JDT/Journal-de-Travail_P_DB-106_Lonfat.xlsx
+++ b/JDT/Journal-de-Travail_P_DB-106_Lonfat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu78tfx\Desktop\files\JDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\pull\JDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0635E9-539B-47EE-9EE2-9FCF6AC53BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CB6DEB-55B9-4EFC-9519-D7522098F82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Auteur:</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>Upload des fichiers manquants sur le repo GitHub du projet</t>
+  </si>
+  <si>
+    <t>Modification du docker-compose pour l'ajout de COMMAND --secure-file-priv sur le répertoire scripts à la place de /var/lib/mysql-files. Modifications des liens dans le rapport et dans les scripts</t>
+  </si>
+  <si>
+    <t>Supprestion d'une erreur dans le fichier des rôles. (Sur les droits des admins) et supressions des dossier OLD qui sont inutiles</t>
+  </si>
+  <si>
+    <t>Implémetations des scripts pour les backup complètes et différentielles</t>
+  </si>
+  <si>
+    <t>Finalisation du rapport, (en corrigant les points discutés)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -676,10 +688,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1235,13 +1243,13 @@
                   <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>955</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>350</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1308,6 +1316,7 @@
     </c:legend>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1315,7 +1324,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1655,6 +1663,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1662,7 +1671,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2087,16 +2095,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.13815789473684212</c:v>
+                  <c:v>0.12462908011869436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62828947368421051</c:v>
+                  <c:v>0.62908011869436198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2894736842105261E-3</c:v>
+                  <c:v>2.967359050445104E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23026315789473684</c:v>
+                  <c:v>0.24332344213649851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2251,6 +2259,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2258,7 +2267,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4281,28 +4289,28 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5" customWidth="1"/>
-    <col min="7" max="7" width="72.125" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="72.08203125" customWidth="1"/>
+    <col min="10" max="10" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.58203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.58203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -4313,16 +4321,16 @@
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -4330,14 +4338,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>25 heures 20 minutes</v>
+        <v>28 heures 5 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4348,30 +4356,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>1520</v>
+        <v>1685</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="86" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="86"/>
-    </row>
-    <row r="6" spans="1:15" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="85"/>
+    </row>
+    <row r="6" spans="1:15" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -4394,7 +4402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="61">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>49</v>
@@ -4414,7 +4422,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="62">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>49</v>
@@ -4443,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="63">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>49</v>
@@ -4472,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="62">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>50</v>
@@ -4501,7 +4509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="63">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v>50</v>
@@ -4530,7 +4538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="62">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>50</v>
@@ -4559,7 +4567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="63">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>50</v>
@@ -4585,7 +4593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="62">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>51</v>
@@ -4611,7 +4619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="63">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v>51</v>
@@ -4637,7 +4645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="62">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>51</v>
@@ -4662,7 +4670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="63">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>51</v>
@@ -4685,7 +4693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="62">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>51</v>
@@ -4708,7 +4716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="63">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v>51</v>
@@ -4733,7 +4741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="62" x14ac:dyDescent="0.35">
       <c r="A20" s="62">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v>51</v>
@@ -4753,7 +4761,7 @@
       </c>
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="63">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v>51</v>
@@ -4775,7 +4783,7 @@
       </c>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="62">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v>1</v>
@@ -4797,7 +4805,7 @@
       </c>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="63">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v>1</v>
@@ -4817,7 +4825,7 @@
       </c>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="62">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v>1</v>
@@ -4837,7 +4845,7 @@
       </c>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="63">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v>1</v>
@@ -4857,7 +4865,7 @@
       </c>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="62">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v>1</v>
@@ -4877,7 +4885,7 @@
       </c>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="63">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v>1</v>
@@ -4897,7 +4905,7 @@
       </c>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="62">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v>1</v>
@@ -4919,7 +4927,7 @@
       </c>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="62" x14ac:dyDescent="0.35">
       <c r="A29" s="63">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v>1</v>
@@ -4934,12 +4942,12 @@
       <c r="E29" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="84" t="s">
+      <c r="F29" s="39" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="62">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v>2</v>
@@ -4959,7 +4967,7 @@
       </c>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A31" s="63">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v>2</v>
@@ -4974,12 +4982,12 @@
       <c r="E31" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="39" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="40"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="62">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v>2</v>
@@ -4999,7 +5007,7 @@
       </c>
       <c r="G32" s="39"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="63">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v>2</v>
@@ -5019,7 +5027,7 @@
       </c>
       <c r="G33" s="40"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="62">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v>2</v>
@@ -5039,7 +5047,7 @@
       </c>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="63">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v>2</v>
@@ -5048,36 +5056,44 @@
         <v>46029</v>
       </c>
       <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
+      <c r="D35" s="36">
+        <v>5</v>
+      </c>
       <c r="E35" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="G35" s="40"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="62">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v>2</v>
       </c>
       <c r="B36" s="30">
-        <v>46029</v>
+        <v>46031</v>
       </c>
       <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="32">
+        <v>10</v>
+      </c>
       <c r="E36" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="84"/>
+        <v>19</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="63">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v>2</v>
       </c>
       <c r="B37" s="34">
-        <v>46029</v>
+        <v>46031</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="36">
@@ -5087,35 +5103,53 @@
         <v>19</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G37" s="40"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="str">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="62">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="30">
+        <v>46031</v>
+      </c>
+      <c r="C38" s="31">
+        <v>1</v>
+      </c>
+      <c r="D38" s="32">
+        <v>30</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="G38" s="39"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="str">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="63">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
-        <v/>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="34">
+        <v>46031</v>
+      </c>
+      <c r="C39" s="35">
+        <v>1</v>
+      </c>
       <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="22"/>
+      <c r="E39" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="G39" s="40"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="62" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -5127,7 +5161,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="39"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="63" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -5139,7 +5173,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="62" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -5151,7 +5185,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="39"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="63" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -5163,7 +5197,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="40"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="62" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -5175,7 +5209,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="63" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -5187,7 +5221,7 @@
       <c r="F45" s="22"/>
       <c r="G45" s="40"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="62" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -5199,7 +5233,7 @@
       <c r="F46" s="22"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -5211,7 +5245,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="62" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -5223,7 +5257,7 @@
       <c r="F48" s="22"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="63" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -5235,7 +5269,7 @@
       <c r="F49" s="22"/>
       <c r="G49" s="40"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="62" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -5247,7 +5281,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="63" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -5259,7 +5293,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="40"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="62" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -5271,7 +5305,7 @@
       <c r="F52" s="22"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="63" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -5283,7 +5317,7 @@
       <c r="F53" s="22"/>
       <c r="G53" s="40"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="62" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -5295,7 +5329,7 @@
       <c r="F54" s="22"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="63" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -5307,7 +5341,7 @@
       <c r="F55" s="22"/>
       <c r="G55" s="40"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="62" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -5319,7 +5353,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="63" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -5331,7 +5365,7 @@
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="62" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -5343,7 +5377,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="63" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -5355,7 +5389,7 @@
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="62" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -5367,7 +5401,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="63" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -5379,7 +5413,7 @@
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="62" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -5391,7 +5425,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="63" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -5403,7 +5437,7 @@
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="62" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -5415,7 +5449,7 @@
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="63" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -5427,7 +5461,7 @@
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="62" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -5439,7 +5473,7 @@
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="63" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -5451,7 +5485,7 @@
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="62" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -5463,7 +5497,7 @@
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="63" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -5475,7 +5509,7 @@
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="62" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -5487,7 +5521,7 @@
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="63" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -5499,7 +5533,7 @@
       <c r="F71" s="40"/>
       <c r="G71" s="40"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -5511,7 +5545,7 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="63" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -5523,7 +5557,7 @@
       <c r="F73" s="40"/>
       <c r="G73" s="40"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="62" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -5535,7 +5569,7 @@
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="63" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -5547,7 +5581,7 @@
       <c r="F75" s="40"/>
       <c r="G75" s="40"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="62" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -5559,7 +5593,7 @@
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="63" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -5571,7 +5605,7 @@
       <c r="F77" s="40"/>
       <c r="G77" s="40"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="62" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -5583,7 +5617,7 @@
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="63" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -5595,7 +5629,7 @@
       <c r="F79" s="40"/>
       <c r="G79" s="40"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="62" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -5607,7 +5641,7 @@
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="63" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -5619,7 +5653,7 @@
       <c r="F81" s="40"/>
       <c r="G81" s="40"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="62" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -5631,7 +5665,7 @@
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="63" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -5643,7 +5677,7 @@
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="62" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -5655,7 +5689,7 @@
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="63" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -5667,7 +5701,7 @@
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="62" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -5679,7 +5713,7 @@
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="63" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -5691,7 +5725,7 @@
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="62" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -5703,7 +5737,7 @@
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="63" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -5715,7 +5749,7 @@
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="62" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -5727,7 +5761,7 @@
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="63" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -5739,7 +5773,7 @@
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="62" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -5751,7 +5785,7 @@
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="63" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -5763,7 +5797,7 @@
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="62" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -5775,7 +5809,7 @@
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="63" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -5787,7 +5821,7 @@
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="62" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -5799,7 +5833,7 @@
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="63" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -5811,7 +5845,7 @@
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="62" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -5823,7 +5857,7 @@
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="63" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -5835,7 +5869,7 @@
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="62" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -5847,7 +5881,7 @@
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="63" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -5859,7 +5893,7 @@
       <c r="F101" s="40"/>
       <c r="G101" s="40"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="62" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -5871,7 +5905,7 @@
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="63" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -5883,7 +5917,7 @@
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="62" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -5895,7 +5929,7 @@
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="63" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -5907,7 +5941,7 @@
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="62" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -5919,7 +5953,7 @@
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -5931,7 +5965,7 @@
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="62" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -5943,7 +5977,7 @@
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="63" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -5955,7 +5989,7 @@
       <c r="F109" s="40"/>
       <c r="G109" s="40"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="62" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -5967,7 +6001,7 @@
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="63" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -5979,7 +6013,7 @@
       <c r="F111" s="40"/>
       <c r="G111" s="40"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="62" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -5991,7 +6025,7 @@
       <c r="F112" s="39"/>
       <c r="G112" s="39"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="63" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -6003,7 +6037,7 @@
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="62" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -6015,7 +6049,7 @@
       <c r="F114" s="39"/>
       <c r="G114" s="39"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="63" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -6027,7 +6061,7 @@
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="62" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -6039,7 +6073,7 @@
       <c r="F116" s="39"/>
       <c r="G116" s="39"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="63" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -6051,7 +6085,7 @@
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="62" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -6063,7 +6097,7 @@
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="63" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -6075,7 +6109,7 @@
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="62" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -6087,7 +6121,7 @@
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="63" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -6099,7 +6133,7 @@
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="62" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -6111,7 +6145,7 @@
       <c r="F122" s="39"/>
       <c r="G122" s="39"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="63" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -6123,7 +6157,7 @@
       <c r="F123" s="40"/>
       <c r="G123" s="40"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="62" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -6135,7 +6169,7 @@
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="63" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -6147,7 +6181,7 @@
       <c r="F125" s="40"/>
       <c r="G125" s="40"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="62" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -6159,7 +6193,7 @@
       <c r="F126" s="39"/>
       <c r="G126" s="39"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="63" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -6171,7 +6205,7 @@
       <c r="F127" s="40"/>
       <c r="G127" s="40"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="62" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -6183,7 +6217,7 @@
       <c r="F128" s="39"/>
       <c r="G128" s="39"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="63" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -6195,7 +6229,7 @@
       <c r="F129" s="40"/>
       <c r="G129" s="40"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="62" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -6207,7 +6241,7 @@
       <c r="F130" s="39"/>
       <c r="G130" s="39"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="63" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -6219,7 +6253,7 @@
       <c r="F131" s="40"/>
       <c r="G131" s="40"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="62" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -6231,7 +6265,7 @@
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="63" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -6243,7 +6277,7 @@
       <c r="F133" s="40"/>
       <c r="G133" s="40"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="62" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -6255,7 +6289,7 @@
       <c r="F134" s="39"/>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="63" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -6267,7 +6301,7 @@
       <c r="F135" s="40"/>
       <c r="G135" s="40"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="62" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -6279,7 +6313,7 @@
       <c r="F136" s="39"/>
       <c r="G136" s="39"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="63" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -6291,7 +6325,7 @@
       <c r="F137" s="40"/>
       <c r="G137" s="40"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="62" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -6303,7 +6337,7 @@
       <c r="F138" s="39"/>
       <c r="G138" s="39"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="63" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -6315,7 +6349,7 @@
       <c r="F139" s="40"/>
       <c r="G139" s="40"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="62" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -6327,7 +6361,7 @@
       <c r="F140" s="39"/>
       <c r="G140" s="39"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="63" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -6339,7 +6373,7 @@
       <c r="F141" s="40"/>
       <c r="G141" s="40"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="62" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -6351,7 +6385,7 @@
       <c r="F142" s="39"/>
       <c r="G142" s="39"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="63" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -6363,7 +6397,7 @@
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="62" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -6375,7 +6409,7 @@
       <c r="F144" s="39"/>
       <c r="G144" s="39"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="63" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -6387,7 +6421,7 @@
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="62" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -6399,7 +6433,7 @@
       <c r="F146" s="39"/>
       <c r="G146" s="39"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="63" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -6411,7 +6445,7 @@
       <c r="F147" s="40"/>
       <c r="G147" s="40"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="62" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -6423,7 +6457,7 @@
       <c r="F148" s="39"/>
       <c r="G148" s="39"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="63" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -6435,7 +6469,7 @@
       <c r="F149" s="40"/>
       <c r="G149" s="40"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="62" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -6447,7 +6481,7 @@
       <c r="F150" s="39"/>
       <c r="G150" s="39"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="63" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -6459,7 +6493,7 @@
       <c r="F151" s="40"/>
       <c r="G151" s="40"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="62" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -6471,7 +6505,7 @@
       <c r="F152" s="39"/>
       <c r="G152" s="39"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="63" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -6483,7 +6517,7 @@
       <c r="F153" s="40"/>
       <c r="G153" s="40"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="62" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -6495,7 +6529,7 @@
       <c r="F154" s="39"/>
       <c r="G154" s="39"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="63" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -6507,7 +6541,7 @@
       <c r="F155" s="40"/>
       <c r="G155" s="40"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="62" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -6519,7 +6553,7 @@
       <c r="F156" s="39"/>
       <c r="G156" s="39"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="63" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -6531,7 +6565,7 @@
       <c r="F157" s="40"/>
       <c r="G157" s="40"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="62" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -6543,7 +6577,7 @@
       <c r="F158" s="39"/>
       <c r="G158" s="39"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="63" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -6555,7 +6589,7 @@
       <c r="F159" s="40"/>
       <c r="G159" s="40"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="62" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -6567,7 +6601,7 @@
       <c r="F160" s="39"/>
       <c r="G160" s="39"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="63" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -6579,7 +6613,7 @@
       <c r="F161" s="40"/>
       <c r="G161" s="40"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="62" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -6591,7 +6625,7 @@
       <c r="F162" s="39"/>
       <c r="G162" s="39"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="63" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -6603,7 +6637,7 @@
       <c r="F163" s="40"/>
       <c r="G163" s="40"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="62" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -6615,7 +6649,7 @@
       <c r="F164" s="39"/>
       <c r="G164" s="39"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="63" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -6627,7 +6661,7 @@
       <c r="F165" s="40"/>
       <c r="G165" s="40"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="62" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -6639,7 +6673,7 @@
       <c r="F166" s="39"/>
       <c r="G166" s="39"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="63" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -6651,7 +6685,7 @@
       <c r="F167" s="40"/>
       <c r="G167" s="40"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="62" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -6663,7 +6697,7 @@
       <c r="F168" s="39"/>
       <c r="G168" s="39"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="63" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -6675,7 +6709,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="40"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="62" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -6687,7 +6721,7 @@
       <c r="F170" s="39"/>
       <c r="G170" s="39"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="63" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -6699,7 +6733,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="40"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="62" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -6711,7 +6745,7 @@
       <c r="F172" s="39"/>
       <c r="G172" s="39"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="63" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -6723,7 +6757,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="40"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="62" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -6735,7 +6769,7 @@
       <c r="F174" s="39"/>
       <c r="G174" s="39"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="63" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -6747,7 +6781,7 @@
       <c r="F175" s="40"/>
       <c r="G175" s="40"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="62" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -6759,7 +6793,7 @@
       <c r="F176" s="39"/>
       <c r="G176" s="39"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="63" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -6771,7 +6805,7 @@
       <c r="F177" s="40"/>
       <c r="G177" s="40"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="62" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -6783,7 +6817,7 @@
       <c r="F178" s="39"/>
       <c r="G178" s="39"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="63" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -6795,7 +6829,7 @@
       <c r="F179" s="40"/>
       <c r="G179" s="40"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="62" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -6807,7 +6841,7 @@
       <c r="F180" s="39"/>
       <c r="G180" s="39"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="63" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -6819,7 +6853,7 @@
       <c r="F181" s="40"/>
       <c r="G181" s="40"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="62" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -6831,7 +6865,7 @@
       <c r="F182" s="39"/>
       <c r="G182" s="39"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="63" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -6843,7 +6877,7 @@
       <c r="F183" s="40"/>
       <c r="G183" s="40"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="62" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -6855,7 +6889,7 @@
       <c r="F184" s="39"/>
       <c r="G184" s="39"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="63" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -6867,7 +6901,7 @@
       <c r="F185" s="40"/>
       <c r="G185" s="40"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="62" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -6879,7 +6913,7 @@
       <c r="F186" s="39"/>
       <c r="G186" s="39"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="63" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -6891,7 +6925,7 @@
       <c r="F187" s="40"/>
       <c r="G187" s="40"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="62" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -6903,7 +6937,7 @@
       <c r="F188" s="39"/>
       <c r="G188" s="39"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="63" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -6915,7 +6949,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="40"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="62" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -6927,7 +6961,7 @@
       <c r="F190" s="39"/>
       <c r="G190" s="39"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="63" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -6939,7 +6973,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="40"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="62" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -6951,7 +6985,7 @@
       <c r="F192" s="39"/>
       <c r="G192" s="39"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="63" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -6963,7 +6997,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="40"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="62" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -6975,7 +7009,7 @@
       <c r="F194" s="39"/>
       <c r="G194" s="39"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="63" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -6987,7 +7021,7 @@
       <c r="F195" s="40"/>
       <c r="G195" s="40"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="62" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -6999,7 +7033,7 @@
       <c r="F196" s="39"/>
       <c r="G196" s="39"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="63" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -7011,7 +7045,7 @@
       <c r="F197" s="40"/>
       <c r="G197" s="40"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="62" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -7023,7 +7057,7 @@
       <c r="F198" s="39"/>
       <c r="G198" s="39"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="63" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -7035,7 +7069,7 @@
       <c r="F199" s="40"/>
       <c r="G199" s="40"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="62" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -7047,7 +7081,7 @@
       <c r="F200" s="39"/>
       <c r="G200" s="39"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="63" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -7059,7 +7093,7 @@
       <c r="F201" s="40"/>
       <c r="G201" s="40"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="62" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -7071,7 +7105,7 @@
       <c r="F202" s="39"/>
       <c r="G202" s="39"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -7083,7 +7117,7 @@
       <c r="F203" s="40"/>
       <c r="G203" s="40"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="62" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -7095,7 +7129,7 @@
       <c r="F204" s="39"/>
       <c r="G204" s="39"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -7107,7 +7141,7 @@
       <c r="F205" s="40"/>
       <c r="G205" s="40"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="62" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -7119,7 +7153,7 @@
       <c r="F206" s="39"/>
       <c r="G206" s="39"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -7131,7 +7165,7 @@
       <c r="F207" s="40"/>
       <c r="G207" s="40"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="62" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -7143,7 +7177,7 @@
       <c r="F208" s="39"/>
       <c r="G208" s="39"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="63" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -7155,7 +7189,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="40"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="62" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -7167,7 +7201,7 @@
       <c r="F210" s="39"/>
       <c r="G210" s="39"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="63" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -7179,7 +7213,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="40"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="62" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -7191,7 +7225,7 @@
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="63" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -7203,7 +7237,7 @@
       <c r="F213" s="40"/>
       <c r="G213" s="40"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="62" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -7215,7 +7249,7 @@
       <c r="F214" s="39"/>
       <c r="G214" s="39"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="63" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -7227,7 +7261,7 @@
       <c r="F215" s="40"/>
       <c r="G215" s="40"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="62" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -7239,7 +7273,7 @@
       <c r="F216" s="39"/>
       <c r="G216" s="39"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="63" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -7251,7 +7285,7 @@
       <c r="F217" s="40"/>
       <c r="G217" s="40"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="62" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -7263,7 +7297,7 @@
       <c r="F218" s="39"/>
       <c r="G218" s="39"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="63" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -7275,7 +7309,7 @@
       <c r="F219" s="40"/>
       <c r="G219" s="40"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="62" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -7287,7 +7321,7 @@
       <c r="F220" s="39"/>
       <c r="G220" s="39"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="63" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -7299,7 +7333,7 @@
       <c r="F221" s="40"/>
       <c r="G221" s="40"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="62" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -7311,7 +7345,7 @@
       <c r="F222" s="39"/>
       <c r="G222" s="39"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="63" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -7323,7 +7357,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="40"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="62" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -7335,7 +7369,7 @@
       <c r="F224" s="39"/>
       <c r="G224" s="39"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="63" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -7347,7 +7381,7 @@
       <c r="F225" s="40"/>
       <c r="G225" s="40"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="62" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -7359,7 +7393,7 @@
       <c r="F226" s="39"/>
       <c r="G226" s="39"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="63" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -7371,7 +7405,7 @@
       <c r="F227" s="40"/>
       <c r="G227" s="40"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="62" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -7383,7 +7417,7 @@
       <c r="F228" s="39"/>
       <c r="G228" s="39"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="63" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -7395,7 +7429,7 @@
       <c r="F229" s="40"/>
       <c r="G229" s="40"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="62" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -7407,7 +7441,7 @@
       <c r="F230" s="39"/>
       <c r="G230" s="39"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="63" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -7419,7 +7453,7 @@
       <c r="F231" s="40"/>
       <c r="G231" s="40"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="62" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -7431,7 +7465,7 @@
       <c r="F232" s="39"/>
       <c r="G232" s="39"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="63" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -7443,7 +7477,7 @@
       <c r="F233" s="40"/>
       <c r="G233" s="40"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="62" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -7455,7 +7489,7 @@
       <c r="F234" s="39"/>
       <c r="G234" s="39"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="63" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -7467,7 +7501,7 @@
       <c r="F235" s="40"/>
       <c r="G235" s="40"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="62" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -7479,7 +7513,7 @@
       <c r="F236" s="39"/>
       <c r="G236" s="39"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="63" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -7491,7 +7525,7 @@
       <c r="F237" s="40"/>
       <c r="G237" s="40"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="62" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -7503,7 +7537,7 @@
       <c r="F238" s="39"/>
       <c r="G238" s="39"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="63" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -7515,7 +7549,7 @@
       <c r="F239" s="40"/>
       <c r="G239" s="40"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="62" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -7527,7 +7561,7 @@
       <c r="F240" s="39"/>
       <c r="G240" s="39"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="63" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -7539,7 +7573,7 @@
       <c r="F241" s="40"/>
       <c r="G241" s="40"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="62" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -7551,7 +7585,7 @@
       <c r="F242" s="39"/>
       <c r="G242" s="39"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="63" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -7563,7 +7597,7 @@
       <c r="F243" s="40"/>
       <c r="G243" s="40"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="62" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -7575,7 +7609,7 @@
       <c r="F244" s="39"/>
       <c r="G244" s="39"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="63" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -7587,7 +7621,7 @@
       <c r="F245" s="40"/>
       <c r="G245" s="40"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="62" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -7599,7 +7633,7 @@
       <c r="F246" s="39"/>
       <c r="G246" s="39"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="63" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -7611,7 +7645,7 @@
       <c r="F247" s="40"/>
       <c r="G247" s="40"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="62" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -7623,7 +7657,7 @@
       <c r="F248" s="39"/>
       <c r="G248" s="39"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="63" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -7635,7 +7669,7 @@
       <c r="F249" s="40"/>
       <c r="G249" s="40"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="62" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -7647,7 +7681,7 @@
       <c r="F250" s="39"/>
       <c r="G250" s="39"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="63" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -7659,7 +7693,7 @@
       <c r="F251" s="40"/>
       <c r="G251" s="40"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="62" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -7671,7 +7705,7 @@
       <c r="F252" s="39"/>
       <c r="G252" s="39"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="63" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -7683,7 +7717,7 @@
       <c r="F253" s="40"/>
       <c r="G253" s="40"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="62" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -7695,7 +7729,7 @@
       <c r="F254" s="39"/>
       <c r="G254" s="39"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="63" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -7707,7 +7741,7 @@
       <c r="F255" s="40"/>
       <c r="G255" s="40"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="62" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -7719,7 +7753,7 @@
       <c r="F256" s="39"/>
       <c r="G256" s="39"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="63" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -7731,7 +7765,7 @@
       <c r="F257" s="40"/>
       <c r="G257" s="40"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="62" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -7743,7 +7777,7 @@
       <c r="F258" s="39"/>
       <c r="G258" s="39"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="63" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -7755,7 +7789,7 @@
       <c r="F259" s="40"/>
       <c r="G259" s="40"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="62" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -7767,7 +7801,7 @@
       <c r="F260" s="39"/>
       <c r="G260" s="39"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="63" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -7779,7 +7813,7 @@
       <c r="F261" s="40"/>
       <c r="G261" s="40"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="62" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -7791,7 +7825,7 @@
       <c r="F262" s="39"/>
       <c r="G262" s="39"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="63" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -7803,7 +7837,7 @@
       <c r="F263" s="40"/>
       <c r="G263" s="40"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="62" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -7815,7 +7849,7 @@
       <c r="F264" s="39"/>
       <c r="G264" s="39"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="63" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -7827,7 +7861,7 @@
       <c r="F265" s="40"/>
       <c r="G265" s="40"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="62" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -7839,7 +7873,7 @@
       <c r="F266" s="39"/>
       <c r="G266" s="39"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="63" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -7851,7 +7885,7 @@
       <c r="F267" s="40"/>
       <c r="G267" s="40"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="62" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -7863,7 +7897,7 @@
       <c r="F268" s="39"/>
       <c r="G268" s="39"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="63" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -7875,7 +7909,7 @@
       <c r="F269" s="40"/>
       <c r="G269" s="40"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="62" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -7887,7 +7921,7 @@
       <c r="F270" s="39"/>
       <c r="G270" s="39"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="63" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -7899,7 +7933,7 @@
       <c r="F271" s="40"/>
       <c r="G271" s="40"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="62" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -7911,7 +7945,7 @@
       <c r="F272" s="39"/>
       <c r="G272" s="39"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="63" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -7923,7 +7957,7 @@
       <c r="F273" s="40"/>
       <c r="G273" s="40"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="62" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -7935,7 +7969,7 @@
       <c r="F274" s="39"/>
       <c r="G274" s="39"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="63" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -7947,7 +7981,7 @@
       <c r="F275" s="40"/>
       <c r="G275" s="40"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="62" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -7959,7 +7993,7 @@
       <c r="F276" s="39"/>
       <c r="G276" s="39"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="63" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -7971,7 +8005,7 @@
       <c r="F277" s="40"/>
       <c r="G277" s="40"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="62" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -7983,7 +8017,7 @@
       <c r="F278" s="39"/>
       <c r="G278" s="39"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="63" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -7995,7 +8029,7 @@
       <c r="F279" s="40"/>
       <c r="G279" s="40"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="62" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -8007,7 +8041,7 @@
       <c r="F280" s="39"/>
       <c r="G280" s="39"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="63" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -8019,7 +8053,7 @@
       <c r="F281" s="40"/>
       <c r="G281" s="40"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="62" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -8031,7 +8065,7 @@
       <c r="F282" s="39"/>
       <c r="G282" s="39"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="63" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -8043,7 +8077,7 @@
       <c r="F283" s="40"/>
       <c r="G283" s="40"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="62" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -8055,7 +8089,7 @@
       <c r="F284" s="39"/>
       <c r="G284" s="39"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="63" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -8067,7 +8101,7 @@
       <c r="F285" s="40"/>
       <c r="G285" s="40"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="62" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -8079,7 +8113,7 @@
       <c r="F286" s="39"/>
       <c r="G286" s="39"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="63" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -8091,7 +8125,7 @@
       <c r="F287" s="40"/>
       <c r="G287" s="40"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="62" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -8103,7 +8137,7 @@
       <c r="F288" s="39"/>
       <c r="G288" s="39"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="63" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -8115,7 +8149,7 @@
       <c r="F289" s="40"/>
       <c r="G289" s="40"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="62" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -8127,7 +8161,7 @@
       <c r="F290" s="39"/>
       <c r="G290" s="39"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="63" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -8139,7 +8173,7 @@
       <c r="F291" s="40"/>
       <c r="G291" s="40"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="62" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -8151,7 +8185,7 @@
       <c r="F292" s="39"/>
       <c r="G292" s="39"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="63" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -8163,7 +8197,7 @@
       <c r="F293" s="40"/>
       <c r="G293" s="40"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="62" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -8175,7 +8209,7 @@
       <c r="F294" s="39"/>
       <c r="G294" s="39"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="63" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -8187,7 +8221,7 @@
       <c r="F295" s="40"/>
       <c r="G295" s="40"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="62" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -8199,7 +8233,7 @@
       <c r="F296" s="39"/>
       <c r="G296" s="39"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="63" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -8211,7 +8245,7 @@
       <c r="F297" s="40"/>
       <c r="G297" s="40"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="62" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -8223,7 +8257,7 @@
       <c r="F298" s="39"/>
       <c r="G298" s="39"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="63" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -8235,7 +8269,7 @@
       <c r="F299" s="40"/>
       <c r="G299" s="40"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="62" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -8247,7 +8281,7 @@
       <c r="F300" s="39"/>
       <c r="G300" s="39"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="63" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -8259,7 +8293,7 @@
       <c r="F301" s="40"/>
       <c r="G301" s="40"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="62" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -8271,7 +8305,7 @@
       <c r="F302" s="39"/>
       <c r="G302" s="39"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="63" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -8283,7 +8317,7 @@
       <c r="F303" s="40"/>
       <c r="G303" s="40"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="62" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -8295,7 +8329,7 @@
       <c r="F304" s="39"/>
       <c r="G304" s="39"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="63" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -8307,7 +8341,7 @@
       <c r="F305" s="40"/>
       <c r="G305" s="40"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="62" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -8319,7 +8353,7 @@
       <c r="F306" s="39"/>
       <c r="G306" s="39"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="63" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -8331,7 +8365,7 @@
       <c r="F307" s="40"/>
       <c r="G307" s="40"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="62" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -8343,7 +8377,7 @@
       <c r="F308" s="39"/>
       <c r="G308" s="39"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="63" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -8355,7 +8389,7 @@
       <c r="F309" s="40"/>
       <c r="G309" s="40"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="62" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -8367,7 +8401,7 @@
       <c r="F310" s="39"/>
       <c r="G310" s="39"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="63" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -8379,7 +8413,7 @@
       <c r="F311" s="40"/>
       <c r="G311" s="40"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="62" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -8391,7 +8425,7 @@
       <c r="F312" s="39"/>
       <c r="G312" s="39"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="63" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -8403,7 +8437,7 @@
       <c r="F313" s="40"/>
       <c r="G313" s="40"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="62" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -8415,7 +8449,7 @@
       <c r="F314" s="39"/>
       <c r="G314" s="39"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="63" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -8427,7 +8461,7 @@
       <c r="F315" s="40"/>
       <c r="G315" s="40"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="62" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -8439,7 +8473,7 @@
       <c r="F316" s="39"/>
       <c r="G316" s="39"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="63" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -8451,7 +8485,7 @@
       <c r="F317" s="40"/>
       <c r="G317" s="40"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="62" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -8463,7 +8497,7 @@
       <c r="F318" s="39"/>
       <c r="G318" s="39"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="63" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -8475,7 +8509,7 @@
       <c r="F319" s="40"/>
       <c r="G319" s="40"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="62" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -8487,7 +8521,7 @@
       <c r="F320" s="39"/>
       <c r="G320" s="39"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="63" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -8499,7 +8533,7 @@
       <c r="F321" s="40"/>
       <c r="G321" s="40"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="62" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -8511,7 +8545,7 @@
       <c r="F322" s="39"/>
       <c r="G322" s="39"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="63" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -8523,7 +8557,7 @@
       <c r="F323" s="40"/>
       <c r="G323" s="40"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="62" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -8535,7 +8569,7 @@
       <c r="F324" s="39"/>
       <c r="G324" s="39"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="63" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -8547,7 +8581,7 @@
       <c r="F325" s="40"/>
       <c r="G325" s="40"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="62" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -8559,7 +8593,7 @@
       <c r="F326" s="39"/>
       <c r="G326" s="39"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="63" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -8571,7 +8605,7 @@
       <c r="F327" s="40"/>
       <c r="G327" s="40"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="62" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -8583,7 +8617,7 @@
       <c r="F328" s="39"/>
       <c r="G328" s="39"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="63" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -8595,7 +8629,7 @@
       <c r="F329" s="40"/>
       <c r="G329" s="40"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="62" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -8607,7 +8641,7 @@
       <c r="F330" s="39"/>
       <c r="G330" s="39"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="63" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -8619,7 +8653,7 @@
       <c r="F331" s="40"/>
       <c r="G331" s="40"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="62" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -8631,7 +8665,7 @@
       <c r="F332" s="39"/>
       <c r="G332" s="39"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="63" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -8643,7 +8677,7 @@
       <c r="F333" s="40"/>
       <c r="G333" s="40"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="62" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -8655,7 +8689,7 @@
       <c r="F334" s="39"/>
       <c r="G334" s="39"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="63" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -8667,7 +8701,7 @@
       <c r="F335" s="40"/>
       <c r="G335" s="40"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="62" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -8679,7 +8713,7 @@
       <c r="F336" s="39"/>
       <c r="G336" s="39"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="63" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -8691,7 +8725,7 @@
       <c r="F337" s="40"/>
       <c r="G337" s="40"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="62" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -8703,7 +8737,7 @@
       <c r="F338" s="39"/>
       <c r="G338" s="39"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="63" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -8715,7 +8749,7 @@
       <c r="F339" s="40"/>
       <c r="G339" s="40"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="62" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -8727,7 +8761,7 @@
       <c r="F340" s="39"/>
       <c r="G340" s="39"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="63" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -8739,7 +8773,7 @@
       <c r="F341" s="40"/>
       <c r="G341" s="40"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="62" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -8751,7 +8785,7 @@
       <c r="F342" s="39"/>
       <c r="G342" s="39"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="63" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -8763,7 +8797,7 @@
       <c r="F343" s="40"/>
       <c r="G343" s="40"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="62" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -8775,7 +8809,7 @@
       <c r="F344" s="39"/>
       <c r="G344" s="39"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="63" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -8787,7 +8821,7 @@
       <c r="F345" s="40"/>
       <c r="G345" s="40"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="62" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -8799,7 +8833,7 @@
       <c r="F346" s="39"/>
       <c r="G346" s="39"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="63" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -8811,7 +8845,7 @@
       <c r="F347" s="40"/>
       <c r="G347" s="40"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="62" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -8823,7 +8857,7 @@
       <c r="F348" s="39"/>
       <c r="G348" s="39"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="63" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -8835,7 +8869,7 @@
       <c r="F349" s="40"/>
       <c r="G349" s="40"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="62" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -8847,7 +8881,7 @@
       <c r="F350" s="39"/>
       <c r="G350" s="39"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="63" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -8859,7 +8893,7 @@
       <c r="F351" s="40"/>
       <c r="G351" s="40"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="62" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -8871,7 +8905,7 @@
       <c r="F352" s="39"/>
       <c r="G352" s="39"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="63" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -8883,7 +8917,7 @@
       <c r="F353" s="40"/>
       <c r="G353" s="40"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="62" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -8895,7 +8929,7 @@
       <c r="F354" s="39"/>
       <c r="G354" s="39"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="63" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -8907,7 +8941,7 @@
       <c r="F355" s="40"/>
       <c r="G355" s="40"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="62" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -8919,7 +8953,7 @@
       <c r="F356" s="39"/>
       <c r="G356" s="39"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="63" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -8931,7 +8965,7 @@
       <c r="F357" s="40"/>
       <c r="G357" s="40"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="62" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -8943,7 +8977,7 @@
       <c r="F358" s="39"/>
       <c r="G358" s="39"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="63" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -8955,7 +8989,7 @@
       <c r="F359" s="40"/>
       <c r="G359" s="40"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="62" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -8967,7 +9001,7 @@
       <c r="F360" s="39"/>
       <c r="G360" s="39"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="63" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -8979,7 +9013,7 @@
       <c r="F361" s="40"/>
       <c r="G361" s="40"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="62" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -8991,7 +9025,7 @@
       <c r="F362" s="39"/>
       <c r="G362" s="39"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="63" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -9003,7 +9037,7 @@
       <c r="F363" s="40"/>
       <c r="G363" s="40"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="62" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -9015,7 +9049,7 @@
       <c r="F364" s="39"/>
       <c r="G364" s="39"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="63" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -9027,7 +9061,7 @@
       <c r="F365" s="40"/>
       <c r="G365" s="40"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="62" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -9039,7 +9073,7 @@
       <c r="F366" s="39"/>
       <c r="G366" s="39"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="63" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -9051,7 +9085,7 @@
       <c r="F367" s="40"/>
       <c r="G367" s="40"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="62" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -9063,7 +9097,7 @@
       <c r="F368" s="39"/>
       <c r="G368" s="39"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="63" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -9075,7 +9109,7 @@
       <c r="F369" s="40"/>
       <c r="G369" s="40"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="62" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -9087,7 +9121,7 @@
       <c r="F370" s="39"/>
       <c r="G370" s="39"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="63" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -9099,7 +9133,7 @@
       <c r="F371" s="40"/>
       <c r="G371" s="40"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="62" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -9111,7 +9145,7 @@
       <c r="F372" s="39"/>
       <c r="G372" s="39"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="63" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -9123,7 +9157,7 @@
       <c r="F373" s="40"/>
       <c r="G373" s="40"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="62" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -9135,7 +9169,7 @@
       <c r="F374" s="39"/>
       <c r="G374" s="39"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="63" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -9147,7 +9181,7 @@
       <c r="F375" s="40"/>
       <c r="G375" s="40"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="62" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -9159,7 +9193,7 @@
       <c r="F376" s="39"/>
       <c r="G376" s="39"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="63" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -9171,7 +9205,7 @@
       <c r="F377" s="40"/>
       <c r="G377" s="40"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="62" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -9183,7 +9217,7 @@
       <c r="F378" s="39"/>
       <c r="G378" s="39"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="63" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -9195,7 +9229,7 @@
       <c r="F379" s="40"/>
       <c r="G379" s="40"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="62" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -9207,7 +9241,7 @@
       <c r="F380" s="39"/>
       <c r="G380" s="39"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="63" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -9219,7 +9253,7 @@
       <c r="F381" s="40"/>
       <c r="G381" s="40"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="62" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -9231,7 +9265,7 @@
       <c r="F382" s="39"/>
       <c r="G382" s="39"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="63" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -9243,7 +9277,7 @@
       <c r="F383" s="40"/>
       <c r="G383" s="40"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="62" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -9255,7 +9289,7 @@
       <c r="F384" s="39"/>
       <c r="G384" s="39"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="63" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -9267,7 +9301,7 @@
       <c r="F385" s="40"/>
       <c r="G385" s="40"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="62" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -9279,7 +9313,7 @@
       <c r="F386" s="39"/>
       <c r="G386" s="39"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="63" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -9291,7 +9325,7 @@
       <c r="F387" s="40"/>
       <c r="G387" s="40"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="62" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -9303,7 +9337,7 @@
       <c r="F388" s="39"/>
       <c r="G388" s="39"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="63" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -9315,7 +9349,7 @@
       <c r="F389" s="40"/>
       <c r="G389" s="40"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="62" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -9327,7 +9361,7 @@
       <c r="F390" s="39"/>
       <c r="G390" s="39"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="63" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -9339,7 +9373,7 @@
       <c r="F391" s="40"/>
       <c r="G391" s="40"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="62" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -9351,7 +9385,7 @@
       <c r="F392" s="39"/>
       <c r="G392" s="39"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="63" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -9363,7 +9397,7 @@
       <c r="F393" s="40"/>
       <c r="G393" s="40"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="62" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -9375,7 +9409,7 @@
       <c r="F394" s="39"/>
       <c r="G394" s="39"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="63" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -9387,7 +9421,7 @@
       <c r="F395" s="40"/>
       <c r="G395" s="40"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="62" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -9399,7 +9433,7 @@
       <c r="F396" s="39"/>
       <c r="G396" s="39"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="63" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -9411,7 +9445,7 @@
       <c r="F397" s="40"/>
       <c r="G397" s="40"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="62" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -9423,7 +9457,7 @@
       <c r="F398" s="39"/>
       <c r="G398" s="39"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="63" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -9435,7 +9469,7 @@
       <c r="F399" s="40"/>
       <c r="G399" s="40"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="62" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -9447,7 +9481,7 @@
       <c r="F400" s="39"/>
       <c r="G400" s="39"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="63" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -9459,7 +9493,7 @@
       <c r="F401" s="40"/>
       <c r="G401" s="40"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="62" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -9471,7 +9505,7 @@
       <c r="F402" s="39"/>
       <c r="G402" s="39"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="63" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -9483,7 +9517,7 @@
       <c r="F403" s="40"/>
       <c r="G403" s="40"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="62" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -9495,7 +9529,7 @@
       <c r="F404" s="39"/>
       <c r="G404" s="39"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="63" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -9507,7 +9541,7 @@
       <c r="F405" s="40"/>
       <c r="G405" s="40"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="62" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -9519,7 +9553,7 @@
       <c r="F406" s="39"/>
       <c r="G406" s="39"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="63" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -9531,7 +9565,7 @@
       <c r="F407" s="40"/>
       <c r="G407" s="40"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="62" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -9543,7 +9577,7 @@
       <c r="F408" s="39"/>
       <c r="G408" s="39"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="63" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -9555,7 +9589,7 @@
       <c r="F409" s="40"/>
       <c r="G409" s="40"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="62" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -9567,7 +9601,7 @@
       <c r="F410" s="39"/>
       <c r="G410" s="39"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="63" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -9579,7 +9613,7 @@
       <c r="F411" s="40"/>
       <c r="G411" s="40"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="62" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -9591,7 +9625,7 @@
       <c r="F412" s="39"/>
       <c r="G412" s="39"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="63" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -9603,7 +9637,7 @@
       <c r="F413" s="40"/>
       <c r="G413" s="40"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="62" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -9615,7 +9649,7 @@
       <c r="F414" s="39"/>
       <c r="G414" s="39"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="63" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -9627,7 +9661,7 @@
       <c r="F415" s="40"/>
       <c r="G415" s="40"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="62" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -9639,7 +9673,7 @@
       <c r="F416" s="39"/>
       <c r="G416" s="39"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="63" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -9651,7 +9685,7 @@
       <c r="F417" s="40"/>
       <c r="G417" s="40"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="62" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -9663,7 +9697,7 @@
       <c r="F418" s="39"/>
       <c r="G418" s="39"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="63" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -9675,7 +9709,7 @@
       <c r="F419" s="40"/>
       <c r="G419" s="40"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="62" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -9687,7 +9721,7 @@
       <c r="F420" s="39"/>
       <c r="G420" s="39"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="63" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -9699,7 +9733,7 @@
       <c r="F421" s="40"/>
       <c r="G421" s="40"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="62" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -9711,7 +9745,7 @@
       <c r="F422" s="39"/>
       <c r="G422" s="39"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="63" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -9723,7 +9757,7 @@
       <c r="F423" s="40"/>
       <c r="G423" s="40"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="62" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -9735,7 +9769,7 @@
       <c r="F424" s="39"/>
       <c r="G424" s="39"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="63" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -9747,7 +9781,7 @@
       <c r="F425" s="40"/>
       <c r="G425" s="40"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="62" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -9759,7 +9793,7 @@
       <c r="F426" s="39"/>
       <c r="G426" s="39"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="63" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -9771,7 +9805,7 @@
       <c r="F427" s="40"/>
       <c r="G427" s="40"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="62" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -9783,7 +9817,7 @@
       <c r="F428" s="39"/>
       <c r="G428" s="39"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="63" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -9795,7 +9829,7 @@
       <c r="F429" s="40"/>
       <c r="G429" s="40"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="62" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -9807,7 +9841,7 @@
       <c r="F430" s="39"/>
       <c r="G430" s="39"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="63" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -9819,7 +9853,7 @@
       <c r="F431" s="40"/>
       <c r="G431" s="40"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="62" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -9831,7 +9865,7 @@
       <c r="F432" s="39"/>
       <c r="G432" s="39"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="63" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -9843,7 +9877,7 @@
       <c r="F433" s="40"/>
       <c r="G433" s="40"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="62" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -9855,7 +9889,7 @@
       <c r="F434" s="39"/>
       <c r="G434" s="39"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="63" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -9867,7 +9901,7 @@
       <c r="F435" s="40"/>
       <c r="G435" s="40"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="62" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -9879,7 +9913,7 @@
       <c r="F436" s="39"/>
       <c r="G436" s="39"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="63" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -9891,7 +9925,7 @@
       <c r="F437" s="40"/>
       <c r="G437" s="40"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="62" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -9903,7 +9937,7 @@
       <c r="F438" s="39"/>
       <c r="G438" s="39"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="63" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -9915,7 +9949,7 @@
       <c r="F439" s="40"/>
       <c r="G439" s="40"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="62" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -9927,7 +9961,7 @@
       <c r="F440" s="39"/>
       <c r="G440" s="39"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="63" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -9939,7 +9973,7 @@
       <c r="F441" s="40"/>
       <c r="G441" s="40"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="62" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -9951,7 +9985,7 @@
       <c r="F442" s="39"/>
       <c r="G442" s="39"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="63" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -9963,7 +9997,7 @@
       <c r="F443" s="40"/>
       <c r="G443" s="40"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="62" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -9975,7 +10009,7 @@
       <c r="F444" s="39"/>
       <c r="G444" s="39"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="63" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -9987,7 +10021,7 @@
       <c r="F445" s="40"/>
       <c r="G445" s="40"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="62" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -9999,7 +10033,7 @@
       <c r="F446" s="39"/>
       <c r="G446" s="39"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="63" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -10011,7 +10045,7 @@
       <c r="F447" s="40"/>
       <c r="G447" s="40"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="62" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -10023,7 +10057,7 @@
       <c r="F448" s="39"/>
       <c r="G448" s="39"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="63" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -10035,7 +10069,7 @@
       <c r="F449" s="40"/>
       <c r="G449" s="40"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="62" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -10047,7 +10081,7 @@
       <c r="F450" s="39"/>
       <c r="G450" s="39"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="63" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -10059,7 +10093,7 @@
       <c r="F451" s="40"/>
       <c r="G451" s="40"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="62" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -10071,7 +10105,7 @@
       <c r="F452" s="39"/>
       <c r="G452" s="39"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="63" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -10083,7 +10117,7 @@
       <c r="F453" s="40"/>
       <c r="G453" s="40"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="62" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -10095,7 +10129,7 @@
       <c r="F454" s="39"/>
       <c r="G454" s="39"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="63" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -10107,7 +10141,7 @@
       <c r="F455" s="40"/>
       <c r="G455" s="40"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="62" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -10119,7 +10153,7 @@
       <c r="F456" s="39"/>
       <c r="G456" s="39"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="63" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -10131,7 +10165,7 @@
       <c r="F457" s="40"/>
       <c r="G457" s="40"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="62" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -10143,7 +10177,7 @@
       <c r="F458" s="39"/>
       <c r="G458" s="39"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="63" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -10155,7 +10189,7 @@
       <c r="F459" s="40"/>
       <c r="G459" s="40"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="62" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -10167,7 +10201,7 @@
       <c r="F460" s="39"/>
       <c r="G460" s="39"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="63" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -10179,7 +10213,7 @@
       <c r="F461" s="40"/>
       <c r="G461" s="40"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="62" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -10191,7 +10225,7 @@
       <c r="F462" s="39"/>
       <c r="G462" s="39"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="63" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -10203,7 +10237,7 @@
       <c r="F463" s="40"/>
       <c r="G463" s="40"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="62" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -10215,7 +10249,7 @@
       <c r="F464" s="39"/>
       <c r="G464" s="39"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="63" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -10227,7 +10261,7 @@
       <c r="F465" s="40"/>
       <c r="G465" s="40"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="62" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -10239,7 +10273,7 @@
       <c r="F466" s="39"/>
       <c r="G466" s="39"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="63" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -10251,7 +10285,7 @@
       <c r="F467" s="40"/>
       <c r="G467" s="40"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="62" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -10263,7 +10297,7 @@
       <c r="F468" s="39"/>
       <c r="G468" s="39"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="63" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -10275,7 +10309,7 @@
       <c r="F469" s="40"/>
       <c r="G469" s="40"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="62" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -10287,7 +10321,7 @@
       <c r="F470" s="39"/>
       <c r="G470" s="39"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="63" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -10299,7 +10333,7 @@
       <c r="F471" s="40"/>
       <c r="G471" s="40"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="62" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -10311,7 +10345,7 @@
       <c r="F472" s="39"/>
       <c r="G472" s="39"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="63" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -10323,7 +10357,7 @@
       <c r="F473" s="40"/>
       <c r="G473" s="40"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="62" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -10335,7 +10369,7 @@
       <c r="F474" s="39"/>
       <c r="G474" s="39"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="63" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -10347,7 +10381,7 @@
       <c r="F475" s="40"/>
       <c r="G475" s="40"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="62" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -10359,7 +10393,7 @@
       <c r="F476" s="39"/>
       <c r="G476" s="39"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="63" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -10371,7 +10405,7 @@
       <c r="F477" s="40"/>
       <c r="G477" s="40"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="62" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -10383,7 +10417,7 @@
       <c r="F478" s="39"/>
       <c r="G478" s="39"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="63" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -10395,7 +10429,7 @@
       <c r="F479" s="40"/>
       <c r="G479" s="40"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="62" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -10407,7 +10441,7 @@
       <c r="F480" s="39"/>
       <c r="G480" s="39"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="63" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -10419,7 +10453,7 @@
       <c r="F481" s="40"/>
       <c r="G481" s="40"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="62" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -10431,7 +10465,7 @@
       <c r="F482" s="39"/>
       <c r="G482" s="39"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="63" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -10443,7 +10477,7 @@
       <c r="F483" s="40"/>
       <c r="G483" s="40"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="62" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -10455,7 +10489,7 @@
       <c r="F484" s="39"/>
       <c r="G484" s="39"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="63" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -10467,7 +10501,7 @@
       <c r="F485" s="40"/>
       <c r="G485" s="40"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="62" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -10479,7 +10513,7 @@
       <c r="F486" s="39"/>
       <c r="G486" s="39"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="63" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -10491,7 +10525,7 @@
       <c r="F487" s="40"/>
       <c r="G487" s="40"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="62" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -10503,7 +10537,7 @@
       <c r="F488" s="39"/>
       <c r="G488" s="39"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" s="63" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -10515,7 +10549,7 @@
       <c r="F489" s="40"/>
       <c r="G489" s="40"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="62" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -10527,7 +10561,7 @@
       <c r="F490" s="39"/>
       <c r="G490" s="39"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="63" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -10539,7 +10573,7 @@
       <c r="F491" s="40"/>
       <c r="G491" s="40"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="62" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -10551,7 +10585,7 @@
       <c r="F492" s="39"/>
       <c r="G492" s="39"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="63" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -10563,7 +10597,7 @@
       <c r="F493" s="40"/>
       <c r="G493" s="40"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="62" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -10575,7 +10609,7 @@
       <c r="F494" s="39"/>
       <c r="G494" s="39"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="63" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -10587,7 +10621,7 @@
       <c r="F495" s="40"/>
       <c r="G495" s="40"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" s="62" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -10599,7 +10633,7 @@
       <c r="F496" s="39"/>
       <c r="G496" s="39"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="63" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -10611,7 +10645,7 @@
       <c r="F497" s="40"/>
       <c r="G497" s="40"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="62" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -10623,7 +10657,7 @@
       <c r="F498" s="39"/>
       <c r="G498" s="39"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="63" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -10635,7 +10669,7 @@
       <c r="F499" s="40"/>
       <c r="G499" s="40"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="62" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -10647,7 +10681,7 @@
       <c r="F500" s="39"/>
       <c r="G500" s="39"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="63" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -10659,7 +10693,7 @@
       <c r="F501" s="40"/>
       <c r="G501" s="40"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="62" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -10671,7 +10705,7 @@
       <c r="F502" s="39"/>
       <c r="G502" s="39"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="63" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -10683,7 +10717,7 @@
       <c r="F503" s="40"/>
       <c r="G503" s="40"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="62" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -10695,7 +10729,7 @@
       <c r="F504" s="39"/>
       <c r="G504" s="39"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="63" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -10707,7 +10741,7 @@
       <c r="F505" s="40"/>
       <c r="G505" s="40"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="62" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -10719,7 +10753,7 @@
       <c r="F506" s="39"/>
       <c r="G506" s="39"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="63" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -10731,7 +10765,7 @@
       <c r="F507" s="40"/>
       <c r="G507" s="40"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="62" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -10743,7 +10777,7 @@
       <c r="F508" s="39"/>
       <c r="G508" s="39"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="63" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -10755,7 +10789,7 @@
       <c r="F509" s="40"/>
       <c r="G509" s="40"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="62" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -10767,7 +10801,7 @@
       <c r="F510" s="39"/>
       <c r="G510" s="39"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="63" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -10779,7 +10813,7 @@
       <c r="F511" s="40"/>
       <c r="G511" s="40"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="62" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -10791,7 +10825,7 @@
       <c r="F512" s="39"/>
       <c r="G512" s="39"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="63" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -10803,7 +10837,7 @@
       <c r="F513" s="40"/>
       <c r="G513" s="40"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" s="62" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -10815,7 +10849,7 @@
       <c r="F514" s="39"/>
       <c r="G514" s="39"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="63" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -10827,7 +10861,7 @@
       <c r="F515" s="40"/>
       <c r="G515" s="40"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" s="62" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -10839,7 +10873,7 @@
       <c r="F516" s="39"/>
       <c r="G516" s="39"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="63" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -10851,7 +10885,7 @@
       <c r="F517" s="40"/>
       <c r="G517" s="40"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" s="62" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -10863,7 +10897,7 @@
       <c r="F518" s="39"/>
       <c r="G518" s="39"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" s="63" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -10875,7 +10909,7 @@
       <c r="F519" s="40"/>
       <c r="G519" s="40"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" s="62" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -10887,7 +10921,7 @@
       <c r="F520" s="39"/>
       <c r="G520" s="39"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" s="63" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -10899,7 +10933,7 @@
       <c r="F521" s="40"/>
       <c r="G521" s="40"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" s="62" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -10911,7 +10945,7 @@
       <c r="F522" s="39"/>
       <c r="G522" s="39"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="63" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -10923,7 +10957,7 @@
       <c r="F523" s="40"/>
       <c r="G523" s="40"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" s="62" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -10935,7 +10969,7 @@
       <c r="F524" s="39"/>
       <c r="G524" s="39"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" s="63" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -10947,7 +10981,7 @@
       <c r="F525" s="40"/>
       <c r="G525" s="40"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" s="62" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -10959,7 +10993,7 @@
       <c r="F526" s="39"/>
       <c r="G526" s="39"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" s="63" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -10971,7 +11005,7 @@
       <c r="F527" s="40"/>
       <c r="G527" s="40"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" s="62" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -10983,7 +11017,7 @@
       <c r="F528" s="39"/>
       <c r="G528" s="39"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" s="63" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -10995,7 +11029,7 @@
       <c r="F529" s="40"/>
       <c r="G529" s="40"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="62" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -11007,7 +11041,7 @@
       <c r="F530" s="39"/>
       <c r="G530" s="39"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" s="63" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -11019,7 +11053,7 @@
       <c r="F531" s="40"/>
       <c r="G531" s="40"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="62" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -11096,19 +11130,19 @@
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="10.875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="21" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="E2" s="66" t="s">
         <v>24</v>
       </c>
@@ -11122,12 +11156,12 @@
       <c r="M2" s="44"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="E4" s="66" t="s">
         <v>25</v>
       </c>
@@ -11137,7 +11171,7 @@
       <c r="M4" s="41"/>
       <c r="N4" s="19"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11167,7 +11201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>180</v>
@@ -11190,7 +11224,7 @@
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.13815789473684212</v>
+        <v>0.12462908011869436</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11204,18 +11238,18 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>955</v>
+        <v>1060</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11223,11 +11257,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>15 h 55 min</v>
+        <v>17 h 40 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.62828947368421051</v>
+        <v>0.62908011869436198</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11241,7 +11275,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -11264,7 +11298,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="2"/>
-        <v>3.2894736842105261E-3</v>
+        <v>2.967359050445104E-3</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>'Journal de travail'!M10</f>
@@ -11278,10 +11312,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
@@ -11289,7 +11323,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11297,11 +11331,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>5 h 50 min</v>
+        <v>6 h 50 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.23026315789473684</v>
+        <v>0.24332344213649851</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11315,7 +11349,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E10,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -11350,29 +11384,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>1520</v>
+        <v>1685</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>25 h 20 min</v>
+        <v>28 h 05 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.2814814814814815</v>
+        <v>0.31203703703703706</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11383,13 +11417,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12">
         <f>F2*60</f>
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F13" s="43"/>
     </row>
   </sheetData>
@@ -11407,7 +11441,7 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="hkKOZ8xr/Okjo/AJlNTtoGYYhES8sIn2fOpGKGGyPJqhNRzaMuj9V6Pke+VqLSypQTwaNPCt0dhRPEVp9CfBFA==" saltValue="lF/ApQWS3LBdJp0wgcNUcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11416,6 +11450,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f20a0681-8b2f-4a46-9dab-cf1520193f81">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="932fafb7-d8e0-4a14-bee3-33aad5c71309" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B1120F001D1794FAA6F4057E3355991" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="1756697b9cc221a3792c5d9d2d772708">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f20a0681-8b2f-4a46-9dab-cf1520193f81" xmlns:ns3="932fafb7-d8e0-4a14-bee3-33aad5c71309" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7aa9f8770837dba73f898ed86a53034" ns2:_="" ns3:_="">
     <xsd:import namespace="f20a0681-8b2f-4a46-9dab-cf1520193f81"/>
@@ -11604,41 +11658,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f20a0681-8b2f-4a46-9dab-cf1520193f81">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="932fafb7-d8e0-4a14-bee3-33aad5c71309" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71CA288A-2102-4D81-AD5A-D51C5AEFAC35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f20a0681-8b2f-4a46-9dab-cf1520193f81"/>
-    <ds:schemaRef ds:uri="932fafb7-d8e0-4a14-bee3-33aad5c71309"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11661,9 +11684,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71CA288A-2102-4D81-AD5A-D51C5AEFAC35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f20a0681-8b2f-4a46-9dab-cf1520193f81"/>
+    <ds:schemaRef ds:uri="932fafb7-d8e0-4a14-bee3-33aad5c71309"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>